--- a/1_semester/Support_and_testing_of_software_modules/Lab2/Модуль 1/import/Order_Contents.xlsx
+++ b/1_semester/Support_and_testing_of_software_modules/Lab2/Модуль 1/import/Order_Contents.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C67C8A-66F7-4D1A-A67D-79400EC25B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Order_Contents" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -31,8 +37,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,13 +76,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -114,7 +128,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -148,6 +162,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -182,9 +197,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -357,16 +373,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -380,7 +401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -394,7 +415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -408,7 +429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -422,7 +443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -436,7 +457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -450,7 +471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -464,7 +485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -478,7 +499,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -492,7 +513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -506,7 +527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -520,7 +541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -534,7 +555,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -548,7 +569,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -562,7 +583,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -576,7 +597,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -590,7 +611,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -604,7 +625,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -618,7 +639,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -632,7 +653,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -646,7 +667,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
